--- a/data/trans_orig/Q31A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Dificultad-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>18.30560761859578</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>19.53170487105762</v>
+        <v>19.53170487105763</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>17.368512275738</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.66650066067682</v>
+        <v>16.68299011111674</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.07346593442139</v>
+        <v>17.0731741921054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.39157959147925</v>
+        <v>16.39814943398815</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.29953368011408</v>
+        <v>16.30720241513743</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.62344211896252</v>
+        <v>17.64476972094337</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>18.81161336475407</v>
+        <v>18.83732244102064</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.89825694161777</v>
+        <v>17.89410782146997</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>18.66094338407589</v>
+        <v>18.65244681604447</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.12183842999409</v>
+        <v>17.13147444728039</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.70461506085572</v>
+        <v>17.70420045210546</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17.00606813393135</v>
+        <v>16.99437636014856</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>17.2327009278696</v>
+        <v>17.22910809197038</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.23639570605986</v>
+        <v>17.23402504119167</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.70010198489317</v>
+        <v>17.72627372276706</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.77579236044479</v>
+        <v>16.77939854214444</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.21989164666564</v>
+        <v>17.2391583664416</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.68283061791535</v>
+        <v>18.70080693947082</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.44133729539214</v>
+        <v>20.50860843110602</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>18.90465376585645</v>
+        <v>18.94336397563632</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>20.79502516483035</v>
+        <v>20.93519483045937</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.64243514053789</v>
+        <v>17.65962396152618</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.39429386715505</v>
+        <v>18.37545454282062</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.44800987192573</v>
+        <v>17.42172888936145</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>18.22549339181651</v>
+        <v>18.184728801508</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>17.06317887808735</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16.70755702252867</v>
+        <v>16.70755702252866</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>18.60484165609279</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.90977705641969</v>
+        <v>16.91506674916639</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.94140394537825</v>
+        <v>16.96413734738899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.89072797661777</v>
+        <v>16.89571826382254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.51104355474369</v>
+        <v>16.53141682485339</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>18.22863510093518</v>
+        <v>18.20305745164432</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.95789397152044</v>
+        <v>17.93395935733961</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>18.24959836598994</v>
+        <v>18.22788444428067</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.61234621629669</v>
+        <v>17.58916614663568</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.32692592253081</v>
+        <v>17.34449761975112</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.36501538114534</v>
+        <v>17.37908179152033</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.46040691365765</v>
+        <v>17.47179965309942</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.97157608731456</v>
+        <v>16.93867316632568</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.19969125557613</v>
+        <v>17.19790031085599</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.31108963116561</v>
+        <v>17.31185730394603</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.30226588767824</v>
+        <v>17.27944950674598</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.91569112782727</v>
+        <v>16.93629089056911</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>19.12706578459889</v>
+        <v>19.14254515596595</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.78194234307659</v>
+        <v>18.75546441661189</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>19.51554845040402</v>
+        <v>19.42045579715673</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>18.43124019469272</v>
+        <v>18.42836915401782</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.67995079859296</v>
+        <v>17.70003107473135</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.75481235444851</v>
+        <v>17.76624842828422</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18.0007219228012</v>
+        <v>18.03154199091593</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.35277106853747</v>
+        <v>17.36268266645031</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.99756977351442</v>
+        <v>17.00523558503408</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.25184126628589</v>
+        <v>17.23395020801205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.81589978424881</v>
+        <v>16.82296311815833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.07733634609793</v>
+        <v>17.08180493611411</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.61248600002657</v>
+        <v>17.62643833064453</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.06236712867052</v>
+        <v>18.05854875997191</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.96027411277384</v>
+        <v>17.96792681842649</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>18.01032046021628</v>
+        <v>18.0044577155343</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.24914593327979</v>
+        <v>17.26267717447645</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.60878625235024</v>
+        <v>17.61619912961717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.32147897276476</v>
+        <v>17.31088650820156</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.44998186042099</v>
+        <v>17.47482889116514</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.31853501583057</v>
+        <v>17.33581073349237</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.96012039573646</v>
+        <v>17.88574450222569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.32443421681896</v>
+        <v>17.3394777639622</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.50598729064205</v>
+        <v>17.49233127069759</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.12924508011877</v>
+        <v>18.11026147222307</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.04567706992475</v>
+        <v>19.0536173703901</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>19.54762975256688</v>
+        <v>19.51669817544688</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.90116017918081</v>
+        <v>19.00712356278025</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.53839123465381</v>
+        <v>17.54168331513387</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.18099595729592</v>
+        <v>18.1626703820586</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.94888375752743</v>
+        <v>17.93028822498517</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.86983701612899</v>
+        <v>17.90021832680695</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>18.1462835297292</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>18.16217743022847</v>
+        <v>18.16217743022846</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.94346232614641</v>
+        <v>16.96251324266377</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.15435528460992</v>
+        <v>17.17609451025869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17.33192375661059</v>
+        <v>17.338842639682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.42503515362905</v>
+        <v>17.42143915342507</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.74411183031989</v>
+        <v>17.72287611111369</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.33224704893938</v>
+        <v>18.26918200102613</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>18.39274500529296</v>
+        <v>18.3356669289268</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>18.38665936410894</v>
+        <v>18.37139902431134</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.25342628727451</v>
+        <v>17.28920151260349</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.7044623197828</v>
+        <v>17.67039430529261</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.813912924632</v>
+        <v>17.85148455890793</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.85239695673251</v>
+        <v>17.88034249818867</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.45098606785476</v>
+        <v>17.43301513054523</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.85374340353654</v>
+        <v>17.85821894447736</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.0774091942835</v>
+        <v>18.05159566267255</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.12497680514021</v>
+        <v>18.09739937434001</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.64763047094197</v>
+        <v>18.66942549813062</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.80904950414915</v>
+        <v>19.76211396314093</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>20.08827467029694</v>
+        <v>20.01681204865895</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>19.68460136109208</v>
+        <v>19.64829962329158</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.72272358120172</v>
+        <v>17.73037405691792</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18.40215344002968</v>
+        <v>18.40979118580698</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18.57698452097964</v>
+        <v>18.59015485569335</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.48108711106754</v>
+        <v>18.55187289013302</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>17.00469411232365</v>
+        <v>17.01298547525196</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.20076159354253</v>
+        <v>17.21199433122555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.89598031939846</v>
+        <v>16.89697506850533</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.02116638094995</v>
+        <v>17.0212610327257</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.94363243656593</v>
+        <v>17.97638013761894</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>18.49067787022813</v>
+        <v>18.48495133749453</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>18.30467565513495</v>
+        <v>18.3028752096192</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>18.3163059141309</v>
+        <v>18.31601878722325</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>17.35266316038591</v>
+        <v>17.34035013964873</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.6818425712883</v>
+        <v>17.69008806971397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.45528935935166</v>
+        <v>17.45218277007102</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>17.52333353896274</v>
+        <v>17.53035866361594</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.19309588414489</v>
+        <v>17.19032859422787</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.50165967013513</v>
+        <v>17.50618071917874</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.13912595287053</v>
+        <v>17.13006719299983</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.30241750337929</v>
+        <v>17.30636008126714</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.35875665477828</v>
+        <v>18.37745409473392</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.09744754668357</v>
+        <v>19.08699865362841</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.9927421276238</v>
+        <v>18.98768680222222</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.89909195893403</v>
+        <v>18.94726267867506</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.53388767729351</v>
+        <v>17.53313272345742</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.97563203971078</v>
+        <v>17.97393012906659</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.73971996108634</v>
+        <v>17.74134502383813</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.80873885858426</v>
+        <v>17.81302797965019</v>
       </c>
     </row>
     <row r="19">
